--- a/biology/Biochimie/Phillip_D._Zamore/Phillip_D._Zamore.xlsx
+++ b/biology/Biochimie/Phillip_D._Zamore/Phillip_D._Zamore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phillip D. Zamore est un biologiste moléculaire américain qui a développé le premier système in vitro pour étudier le mécanisme de l'interférence par ARN (ARNi). Il est professeur Gretchen Stone Cook de sciences biomédicales et professeur de biochimie et de pharmacologie moléculaire[1] à la University of Massachusetts Medical School (en). Zamore est le président du RNA Therapeutics Institute (RTI) de l'UMass Medical School, créé en 2009, et est chercheur au Howard Hughes Medical Institute[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phillip D. Zamore est un biologiste moléculaire américain qui a développé le premier système in vitro pour étudier le mécanisme de l'interférence par ARN (ARNi). Il est professeur Gretchen Stone Cook de sciences biomédicales et professeur de biochimie et de pharmacologie moléculaire à la University of Massachusetts Medical School (en). Zamore est le président du RNA Therapeutics Institute (RTI) de l'UMass Medical School, créé en 2009, et est chercheur au Howard Hughes Medical Institute.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le laboratoire Zamore du RTI se concentre sur la compréhension des processus sous-jacents de l'ARNi ; comment les petits ARN (miARN, siARN, piARN) sont impliqués dans les réseaux de régulation des gènes[3]. En plus de se concentrer sur la recherche fondamentale, le laboratoire de Zamore travaille au développement de nouveaux médicaments à base d'acides nucléiques pour traiter les maladies humaines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le laboratoire Zamore du RTI se concentre sur la compréhension des processus sous-jacents de l'ARNi ; comment les petits ARN (miARN, siARN, piARN) sont impliqués dans les réseaux de régulation des gènes. En plus de se concentrer sur la recherche fondamentale, le laboratoire de Zamore travaille au développement de nouveaux médicaments à base d'acides nucléiques pour traiter les maladies humaines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zamore a obtenu son baccalauréat en biochimie et biologie moléculaire de l'Université Harvard à Cambridge, Massachusetts, en 1986 et y a poursuivi ses études supérieures avec Michael Green, et obtenu son doctorat en 1992[1]. Après avoir terminé des études postdoctorales à l'Institut Whitehead pour la recherche biomédicale du MIT et au Skirball Institute du New York University Medical Center avec Ruth Lehmann, David Bartel et James R. Williamson, Zamore a commencé sa carrière universitaire en tant que professeur adjoint au département de biochimie et de pharmacologie moléculaire en 1999 à l'UMass Medical School de Worcester, où il est maintenant professeur Gretchen Stone Cook de sciences biomédicales et professeur de biochimie et de pharmacologie moléculaire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zamore a obtenu son baccalauréat en biochimie et biologie moléculaire de l'Université Harvard à Cambridge, Massachusetts, en 1986 et y a poursuivi ses études supérieures avec Michael Green, et obtenu son doctorat en 1992. Après avoir terminé des études postdoctorales à l'Institut Whitehead pour la recherche biomédicale du MIT et au Skirball Institute du New York University Medical Center avec Ruth Lehmann, David Bartel et James R. Williamson, Zamore a commencé sa carrière universitaire en tant que professeur adjoint au département de biochimie et de pharmacologie moléculaire en 1999 à l'UMass Medical School de Worcester, où il est maintenant professeur Gretchen Stone Cook de sciences biomédicales et professeur de biochimie et de pharmacologie moléculaire.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Engagement dans la biotechnologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches de Zamore ont mené à une carrière en biotechnologie, et à cofonder Alnylam Pharmaceuticals en 2002[4]. Alnylam se consacre à la commercialisation de thérapies basées sur l'ARNi et a développé le tout premier médicament à base d'ARNi approuvé par la FDA, le Patisiran, obtenant l'approbation en août 2018[5]. En 2014, Zamore cofonde une autre société basée sur l'ARNi ; Voyager Therapeutics[6], qui se concentre sur le développement de thérapies pour les troubles neurodégénératifs.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches de Zamore ont mené à une carrière en biotechnologie, et à cofonder Alnylam Pharmaceuticals en 2002. Alnylam se consacre à la commercialisation de thérapies basées sur l'ARNi et a développé le tout premier médicament à base d'ARNi approuvé par la FDA, le Patisiran, obtenant l'approbation en août 2018. En 2014, Zamore cofonde une autre société basée sur l'ARNi ; Voyager Therapeutics, qui se concentre sur le développement de thérapies pour les troubles neurodégénératifs.
 </t>
         </is>
       </c>
@@ -604,20 +622,22 @@
           <t>Prix et distinctions choisis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Invented Here! Honoree, Boston Patent Law Association, pour le brevet américain US 9 226 976, « RAAV-Based Compositions and Methods for Treating Alpha-1 Anti-Trypsin Deficiencies », octobre 2017
-Article de l'année décerné par l'Oligonucleotide Therapeutics Society : (en) William E. Salomon, Samson M. Jolly, Melissa J.Moore, Phillip D. Zamore et Victor Serebrov, « Single-Molecule Imaging Reveals that Argonaute Reshapes the Binding Properties of Its Nucleic Acid Guides », Cell, vol. 162, no 1,‎ 2 juillet 2015, p. 84–95 (ISSN 0092-8674, DOI 10.1016/j.cell.2015.06.029, lire en ligne, consulté le 30 août 2021)[7].
-Récipiendaire, Chancellor's Medal for Excellence in Scholarship, University of Massachusetts Medical School[8].
-« Les esprits scientifiques les plus influents du monde 2014 », Biologie moléculaire et génétique, Thomson-Reuters[9].
-Top 20 des chercheurs translationnels de 2014, Nature Biotechnology[10].
-Fellow, National Academy of Inventors, décembre 2014[11].
+Article de l'année décerné par l'Oligonucleotide Therapeutics Society : (en) William E. Salomon, Samson M. Jolly, Melissa J.Moore, Phillip D. Zamore et Victor Serebrov, « Single-Molecule Imaging Reveals that Argonaute Reshapes the Binding Properties of Its Nucleic Acid Guides », Cell, vol. 162, no 1,‎ 2 juillet 2015, p. 84–95 (ISSN 0092-8674, DOI 10.1016/j.cell.2015.06.029, lire en ligne, consulté le 30 août 2021).
+Récipiendaire, Chancellor's Medal for Excellence in Scholarship, University of Massachusetts Medical School.
+« Les esprits scientifiques les plus influents du monde 2014 », Biologie moléculaire et génétique, Thomson-Reuters.
+Top 20 des chercheurs translationnels de 2014, Nature Biotechnology.
+Fellow, National Academy of Inventors, décembre 2014.
 Réalisations exceptionnelles en recherche, Nature Biotechnology SciCafé juin 2009.
 Prix Schering-Plough, Société américaine de biochimie et de biologie moléculaire, avril 2009.
-Chercheurs les plus cités, 2002-2012 (Thomson-Reuters)[1]
+Chercheurs les plus cités, 2002-2012 (Thomson-Reuters)
 Jeune chercheur en recherche médicale de la Fondation WM Keck, juillet 2002-juillet 2007.
-Top 20 des chercheurs les plus cités en biologie moléculaire et génétique, 2002-2006, ScienceWatch (Thomson Scientific)[2]
-Pew Scholar en sciences biomédicales, juillet 2000-juin 2004[12].</t>
+Top 20 des chercheurs les plus cités en biologie moléculaire et génétique, 2002-2006, ScienceWatch (Thomson Scientific)
+Pew Scholar en sciences biomédicales, juillet 2000-juin 2004.</t>
         </is>
       </c>
     </row>
@@ -645,7 +665,9 @@
           <t>Publications choisies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) G. Hutvagner, J. McLachlan, A. E. Pasquinelli et E. Bálint, « A Cellular Function for the RNA-Interference Enzyme Dicer in the Maturation of the let-7 Small Temporal RNA », Science, vol. 293, no 5531,‎ 2001, p. 834–838 (PMID 11452083, DOI 10.1126/science.1062961)
 (en) G. Hutvagner et P. D. Zamore, « A microRNA in a Multiple-Turnover RNAi Enzyme Complex », Science, vol. 297, no 5589,‎ 2002, p. 2056–2060 (PMID 12154197, DOI 10.1126/science.1073827)
